--- a/data/pca/factorExposure/factorExposure_2009-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01713460552358704</v>
+        <v>0.01650784060681787</v>
       </c>
       <c r="C2">
-        <v>0.001620905388693403</v>
+        <v>0.00110117475978193</v>
       </c>
       <c r="D2">
-        <v>0.009770311086651402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009685843925001726</v>
+      </c>
+      <c r="E2">
+        <v>0.002671732983133583</v>
+      </c>
+      <c r="F2">
+        <v>-0.01197194751915746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08936328910974195</v>
+        <v>0.0917858357010977</v>
       </c>
       <c r="C4">
-        <v>0.02012035736705986</v>
+        <v>0.01537862172520385</v>
       </c>
       <c r="D4">
-        <v>0.07724404757178256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08182680631231454</v>
+      </c>
+      <c r="E4">
+        <v>0.02814951729497497</v>
+      </c>
+      <c r="F4">
+        <v>0.03252819836453968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.410040816323026e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.617076725519645e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0001115174507486249</v>
+      </c>
+      <c r="E5">
+        <v>-3.779589269776723e-05</v>
+      </c>
+      <c r="F5">
+        <v>-6.486360242919804e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1532957340737891</v>
+        <v>0.1616535015672744</v>
       </c>
       <c r="C6">
-        <v>0.03078461539704754</v>
+        <v>0.02982990759743874</v>
       </c>
       <c r="D6">
-        <v>-0.03536044550592821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02555038974202629</v>
+      </c>
+      <c r="E6">
+        <v>0.00959339076417242</v>
+      </c>
+      <c r="F6">
+        <v>0.04070607576516784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06022807383410403</v>
+        <v>0.06248303105801372</v>
       </c>
       <c r="C7">
-        <v>0.002077698877756043</v>
+        <v>-0.001148542818994639</v>
       </c>
       <c r="D7">
-        <v>0.04834963064737858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05374163757244375</v>
+      </c>
+      <c r="E7">
+        <v>0.0154289535035006</v>
+      </c>
+      <c r="F7">
+        <v>0.04944638595410333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06126811797467653</v>
+        <v>0.05716571534975377</v>
       </c>
       <c r="C8">
-        <v>-0.009993227975266337</v>
+        <v>-0.0118139287079036</v>
       </c>
       <c r="D8">
-        <v>0.02693796222274456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03058020777070381</v>
+      </c>
+      <c r="E8">
+        <v>0.018649270331362</v>
+      </c>
+      <c r="F8">
+        <v>-0.02862322916948552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06948949174075882</v>
+        <v>0.07136317959696255</v>
       </c>
       <c r="C9">
-        <v>0.01598914331079243</v>
+        <v>0.01084172110196534</v>
       </c>
       <c r="D9">
-        <v>0.08018804012354418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08581170758053985</v>
+      </c>
+      <c r="E9">
+        <v>0.02571837548064687</v>
+      </c>
+      <c r="F9">
+        <v>0.04914882336089267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08547981799496139</v>
+        <v>0.08702787820515459</v>
       </c>
       <c r="C10">
-        <v>0.01661246420095317</v>
+        <v>0.02185987883932234</v>
       </c>
       <c r="D10">
-        <v>-0.1652510218148675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1588829572491027</v>
+      </c>
+      <c r="E10">
+        <v>-0.03262247814487378</v>
+      </c>
+      <c r="F10">
+        <v>-0.05862291087399683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09067931579012947</v>
+        <v>0.087611324852683</v>
       </c>
       <c r="C11">
-        <v>0.01734934927521221</v>
+        <v>0.01206433950762524</v>
       </c>
       <c r="D11">
-        <v>0.1121710380675058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1186029630717479</v>
+      </c>
+      <c r="E11">
+        <v>0.05205125949122313</v>
+      </c>
+      <c r="F11">
+        <v>0.02581544482257119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09676411598583275</v>
+        <v>0.09094491098087112</v>
       </c>
       <c r="C12">
-        <v>0.01580281532631861</v>
+        <v>0.009650403456176453</v>
       </c>
       <c r="D12">
-        <v>0.1199064675771085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1340462129778413</v>
+      </c>
+      <c r="E12">
+        <v>0.05249246881776148</v>
+      </c>
+      <c r="F12">
+        <v>0.03155829194982671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04491801057304083</v>
+        <v>0.04355827116780131</v>
       </c>
       <c r="C13">
-        <v>0.006695560574509552</v>
+        <v>0.002904914038235465</v>
       </c>
       <c r="D13">
-        <v>0.04503253709124494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05439321397389073</v>
+      </c>
+      <c r="E13">
+        <v>0.000442994970981068</v>
+      </c>
+      <c r="F13">
+        <v>0.004357904403763688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01999836801968081</v>
+        <v>0.02386364355051693</v>
       </c>
       <c r="C14">
-        <v>0.01530202957571895</v>
+        <v>0.01408679275784973</v>
       </c>
       <c r="D14">
-        <v>0.03257520186561192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03358871168562434</v>
+      </c>
+      <c r="E14">
+        <v>0.02218594432636593</v>
+      </c>
+      <c r="F14">
+        <v>0.01221983002018712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03440188482814556</v>
+        <v>0.03437926345035628</v>
       </c>
       <c r="C15">
-        <v>0.007693810558680203</v>
+        <v>0.005911121896855984</v>
       </c>
       <c r="D15">
-        <v>0.04590815715127051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0465404971721082</v>
+      </c>
+      <c r="E15">
+        <v>0.008993617189193998</v>
+      </c>
+      <c r="F15">
+        <v>0.02966829536041835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07479336816875468</v>
+        <v>0.07231963491260966</v>
       </c>
       <c r="C16">
-        <v>0.007677695928574227</v>
+        <v>0.002028044832066969</v>
       </c>
       <c r="D16">
-        <v>0.1153618464609814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1293989849166265</v>
+      </c>
+      <c r="E16">
+        <v>0.06600734522032557</v>
+      </c>
+      <c r="F16">
+        <v>0.02876501797298856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001257235036917283</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003613196287691243</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002095262200541792</v>
+      </c>
+      <c r="E17">
+        <v>0.001702879674663444</v>
+      </c>
+      <c r="F17">
+        <v>-0.002231766655741624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02493654513926448</v>
+        <v>0.04261449477992924</v>
       </c>
       <c r="C18">
-        <v>-0.001827409624331594</v>
+        <v>-0.001795707124078905</v>
       </c>
       <c r="D18">
-        <v>0.02266179226319581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0163021333065908</v>
+      </c>
+      <c r="E18">
+        <v>-0.004937092254322237</v>
+      </c>
+      <c r="F18">
+        <v>-0.009291881359125556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06434272037582775</v>
+        <v>0.06285364999244178</v>
       </c>
       <c r="C20">
-        <v>0.00570457920147947</v>
+        <v>0.001753859337246373</v>
       </c>
       <c r="D20">
-        <v>0.072433712498995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07906387481441285</v>
+      </c>
+      <c r="E20">
+        <v>0.06176543605370091</v>
+      </c>
+      <c r="F20">
+        <v>0.02980468277821223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04105659443078503</v>
+        <v>0.04274271962622842</v>
       </c>
       <c r="C21">
-        <v>0.009908841728334457</v>
+        <v>0.007260902636106231</v>
       </c>
       <c r="D21">
-        <v>0.03410075583715099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03600630892766107</v>
+      </c>
+      <c r="E21">
+        <v>0.002365677501903416</v>
+      </c>
+      <c r="F21">
+        <v>-0.02430949283339234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0406009530617191</v>
+        <v>0.04224113774927162</v>
       </c>
       <c r="C22">
-        <v>0.001281221412030767</v>
+        <v>0.0009260508344826205</v>
       </c>
       <c r="D22">
-        <v>0.001108261383320678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006904992380351963</v>
+      </c>
+      <c r="E22">
+        <v>0.03700865992583528</v>
+      </c>
+      <c r="F22">
+        <v>-0.04813244994287148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04055604013270191</v>
+        <v>0.04221037138542805</v>
       </c>
       <c r="C23">
-        <v>0.00126741655902018</v>
+        <v>0.0009144559308941814</v>
       </c>
       <c r="D23">
-        <v>0.001137095105517018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006919701106271168</v>
+      </c>
+      <c r="E23">
+        <v>0.03703795592147686</v>
+      </c>
+      <c r="F23">
+        <v>-0.04818654389745741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08233829777411668</v>
+        <v>0.07843316831825503</v>
       </c>
       <c r="C24">
-        <v>0.008410270401320691</v>
+        <v>0.002949011082112069</v>
       </c>
       <c r="D24">
-        <v>0.1161102976025224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1217886256810927</v>
+      </c>
+      <c r="E24">
+        <v>0.05379672341285358</v>
+      </c>
+      <c r="F24">
+        <v>0.03138640237698277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08668118235077107</v>
+        <v>0.08316547734347451</v>
       </c>
       <c r="C25">
-        <v>0.01056353845719005</v>
+        <v>0.00562240204557432</v>
       </c>
       <c r="D25">
-        <v>0.1040148355998709</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1107909596379916</v>
+      </c>
+      <c r="E25">
+        <v>0.03614615124806941</v>
+      </c>
+      <c r="F25">
+        <v>0.02858270861908318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05789812043150658</v>
+        <v>0.06097071415586491</v>
       </c>
       <c r="C26">
-        <v>0.01847124917476418</v>
+        <v>0.01522624577457094</v>
       </c>
       <c r="D26">
-        <v>0.03506837262662393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04502208877533669</v>
+      </c>
+      <c r="E26">
+        <v>0.03330409417477795</v>
+      </c>
+      <c r="F26">
+        <v>-0.007256753564083612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1347879772168167</v>
+        <v>0.1439095132864485</v>
       </c>
       <c r="C28">
-        <v>0.01637801900968514</v>
+        <v>0.02417292360353088</v>
       </c>
       <c r="D28">
-        <v>-0.2642477558153148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2583844841766528</v>
+      </c>
+      <c r="E28">
+        <v>-0.06659360285044531</v>
+      </c>
+      <c r="F28">
+        <v>0.004612328093690998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0262196444839515</v>
+        <v>0.0288792761281507</v>
       </c>
       <c r="C29">
-        <v>0.01006364395073909</v>
+        <v>0.00927800223525925</v>
       </c>
       <c r="D29">
-        <v>0.02966835467530027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03039969769873747</v>
+      </c>
+      <c r="E29">
+        <v>0.01892398667154169</v>
+      </c>
+      <c r="F29">
+        <v>-0.01291470795101629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05902305707795692</v>
+        <v>0.05631066135684774</v>
       </c>
       <c r="C30">
-        <v>0.008002684686445952</v>
+        <v>0.002882270518298031</v>
       </c>
       <c r="D30">
-        <v>0.08003927772404494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08823276271956612</v>
+      </c>
+      <c r="E30">
+        <v>0.01494546046851616</v>
+      </c>
+      <c r="F30">
+        <v>0.07818274355065315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05076990744740858</v>
+        <v>0.05126041464722101</v>
       </c>
       <c r="C31">
-        <v>0.01776769024771679</v>
+        <v>0.01642703732455467</v>
       </c>
       <c r="D31">
-        <v>0.02162837451353784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02445495476395552</v>
+      </c>
+      <c r="E31">
+        <v>0.02971887804572285</v>
+      </c>
+      <c r="F31">
+        <v>-0.001006294071210224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04785366287486523</v>
+        <v>0.05168728429565649</v>
       </c>
       <c r="C32">
-        <v>0.002313961293840148</v>
+        <v>-0.0009804428209508574</v>
       </c>
       <c r="D32">
-        <v>0.02838985933198341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03328086571667558</v>
+      </c>
+      <c r="E32">
+        <v>0.03524337102133295</v>
+      </c>
+      <c r="F32">
+        <v>0.002760420796584124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09101070726562777</v>
+        <v>0.09065609289317757</v>
       </c>
       <c r="C33">
-        <v>0.01394829131552708</v>
+        <v>0.008023186406753905</v>
       </c>
       <c r="D33">
-        <v>0.0911300515937391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1049284314288317</v>
+      </c>
+      <c r="E33">
+        <v>0.04909717442942187</v>
+      </c>
+      <c r="F33">
+        <v>0.04339199422217251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06918200714196074</v>
+        <v>0.06756345250592775</v>
       </c>
       <c r="C34">
-        <v>0.01590828326141342</v>
+        <v>0.01111393048849109</v>
       </c>
       <c r="D34">
-        <v>0.09778122411250216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097991041605176</v>
+      </c>
+      <c r="E34">
+        <v>0.03979401297431214</v>
+      </c>
+      <c r="F34">
+        <v>0.03539826863483449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02590637186985203</v>
+        <v>0.02740481276460036</v>
       </c>
       <c r="C35">
-        <v>0.004164969686214369</v>
+        <v>0.003636867460412536</v>
       </c>
       <c r="D35">
-        <v>0.008232214892785512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01177087356408151</v>
+      </c>
+      <c r="E35">
+        <v>0.01575766470457072</v>
+      </c>
+      <c r="F35">
+        <v>0.0002199204554921558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0253861634081559</v>
+        <v>0.02882588317305212</v>
       </c>
       <c r="C36">
-        <v>0.008347615608741902</v>
+        <v>0.007256049709450662</v>
       </c>
       <c r="D36">
-        <v>0.03853208752256238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04001695336008072</v>
+      </c>
+      <c r="E36">
+        <v>0.0201590981838708</v>
+      </c>
+      <c r="F36">
+        <v>0.01524739289816193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002212788114727054</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006293303602365705</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003207032725110276</v>
+      </c>
+      <c r="E37">
+        <v>0.0004352450157866156</v>
+      </c>
+      <c r="F37">
+        <v>-0.001544715712315719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1102553304535406</v>
+        <v>0.09929929944367469</v>
       </c>
       <c r="C39">
-        <v>0.02317768301557269</v>
+        <v>0.01670418163662939</v>
       </c>
       <c r="D39">
-        <v>0.1490659912408798</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1521878875099048</v>
+      </c>
+      <c r="E39">
+        <v>0.06324051557843043</v>
+      </c>
+      <c r="F39">
+        <v>0.02187934108013801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03899222711738917</v>
+        <v>0.04447232137921789</v>
       </c>
       <c r="C40">
-        <v>0.00961739920426242</v>
+        <v>0.008206101130746411</v>
       </c>
       <c r="D40">
-        <v>0.02399403483546451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03300370743888364</v>
+      </c>
+      <c r="E40">
+        <v>0.004029442861567375</v>
+      </c>
+      <c r="F40">
+        <v>-0.01547849290745705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02450041569395064</v>
+        <v>0.02692810486543431</v>
       </c>
       <c r="C41">
-        <v>0.007511362495501141</v>
+        <v>0.006889291639521559</v>
       </c>
       <c r="D41">
-        <v>0.007664479132650791</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009944836591902439</v>
+      </c>
+      <c r="E41">
+        <v>0.01311534409658183</v>
+      </c>
+      <c r="F41">
+        <v>-0.00743542577720441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04144559468696019</v>
+        <v>0.03993103300102069</v>
       </c>
       <c r="C43">
-        <v>0.008531374836862601</v>
+        <v>0.00779489892893001</v>
       </c>
       <c r="D43">
-        <v>0.01746707614979351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01956584328440256</v>
+      </c>
+      <c r="E43">
+        <v>0.02769725171690018</v>
+      </c>
+      <c r="F43">
+        <v>-0.01608977229996328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06761753889622335</v>
+        <v>0.07730865253095083</v>
       </c>
       <c r="C44">
-        <v>0.0242431675428106</v>
+        <v>0.02029068129447893</v>
       </c>
       <c r="D44">
-        <v>0.09460756451064455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09542334224299184</v>
+      </c>
+      <c r="E44">
+        <v>0.06324955146173669</v>
+      </c>
+      <c r="F44">
+        <v>0.16878540942666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02239229235530754</v>
+        <v>0.02491127096004332</v>
       </c>
       <c r="C46">
-        <v>0.004759844078420516</v>
+        <v>0.003922414544022049</v>
       </c>
       <c r="D46">
-        <v>0.01001225937940959</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01362298666241001</v>
+      </c>
+      <c r="E46">
+        <v>0.0332615638142034</v>
+      </c>
+      <c r="F46">
+        <v>-0.005177400520616497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05364095559517811</v>
+        <v>0.05289281821177304</v>
       </c>
       <c r="C47">
-        <v>0.005714569059046293</v>
+        <v>0.004723705527962345</v>
       </c>
       <c r="D47">
-        <v>0.007418939762177335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01095609276117657</v>
+      </c>
+      <c r="E47">
+        <v>0.02444539355268749</v>
+      </c>
+      <c r="F47">
+        <v>-0.03156642701170039</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04839248589495364</v>
+        <v>0.05133795747713141</v>
       </c>
       <c r="C48">
-        <v>0.00534740649943467</v>
+        <v>0.00267795103391971</v>
       </c>
       <c r="D48">
-        <v>0.0477522055816107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0505856828119773</v>
+      </c>
+      <c r="E48">
+        <v>-0.002447146376701268</v>
+      </c>
+      <c r="F48">
+        <v>0.01256302070119292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1981406870293262</v>
+        <v>0.1996932618108029</v>
       </c>
       <c r="C49">
-        <v>0.02407288512994531</v>
+        <v>0.02191313252754337</v>
       </c>
       <c r="D49">
-        <v>-0.01328633044518687</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00475154684748946</v>
+      </c>
+      <c r="E49">
+        <v>0.0290333232537375</v>
+      </c>
+      <c r="F49">
+        <v>0.04955559593192178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04942712985955811</v>
+        <v>0.05166606777902852</v>
       </c>
       <c r="C50">
-        <v>0.01346750160347765</v>
+        <v>0.01207894920400664</v>
       </c>
       <c r="D50">
-        <v>0.02124501088801083</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02420264121883482</v>
+      </c>
+      <c r="E50">
+        <v>0.03279155946124273</v>
+      </c>
+      <c r="F50">
+        <v>0.009404932982113015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1544184382477422</v>
+        <v>0.1475372892599774</v>
       </c>
       <c r="C52">
-        <v>0.02187223705576436</v>
+        <v>0.01968945061968368</v>
       </c>
       <c r="D52">
-        <v>0.04116246952983857</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04251844092364598</v>
+      </c>
+      <c r="E52">
+        <v>0.02026365485270493</v>
+      </c>
+      <c r="F52">
+        <v>0.04217286892636996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1739142486973127</v>
+        <v>0.1680944119784528</v>
       </c>
       <c r="C53">
-        <v>0.02310985869275122</v>
+        <v>0.02288922785428199</v>
       </c>
       <c r="D53">
-        <v>0.004819333004932586</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005832664149079916</v>
+      </c>
+      <c r="E53">
+        <v>0.02649671304428159</v>
+      </c>
+      <c r="F53">
+        <v>0.0753646945788319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01683386895756587</v>
+        <v>0.01887204455330362</v>
       </c>
       <c r="C54">
-        <v>0.0121534359164783</v>
+        <v>0.01106591018759901</v>
       </c>
       <c r="D54">
-        <v>0.02887579091959071</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02940869813916723</v>
+      </c>
+      <c r="E54">
+        <v>0.02127931330482798</v>
+      </c>
+      <c r="F54">
+        <v>-0.002029501938980155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1183019746906442</v>
+        <v>0.1163974289683338</v>
       </c>
       <c r="C55">
-        <v>0.02028943932763828</v>
+        <v>0.02009123876523003</v>
       </c>
       <c r="D55">
-        <v>0.003757122848158716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008349720216319851</v>
+      </c>
+      <c r="E55">
+        <v>0.02554534367203732</v>
+      </c>
+      <c r="F55">
+        <v>0.0467632011588193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808790725977984</v>
+        <v>0.1755441066983249</v>
       </c>
       <c r="C56">
-        <v>0.02130260085940805</v>
+        <v>0.02123740595446637</v>
       </c>
       <c r="D56">
-        <v>-0.007464602989029903</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002606773190147118</v>
+      </c>
+      <c r="E56">
+        <v>0.03087037413638574</v>
+      </c>
+      <c r="F56">
+        <v>0.05597001962542283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04628846811554302</v>
+        <v>0.04500891804726685</v>
       </c>
       <c r="C58">
-        <v>0.004904134949991527</v>
+        <v>3.462096148431621e-05</v>
       </c>
       <c r="D58">
-        <v>0.06598357615625598</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07641876257562423</v>
+      </c>
+      <c r="E58">
+        <v>0.03628897310753012</v>
+      </c>
+      <c r="F58">
+        <v>-0.03660679917755555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1610724085804746</v>
+        <v>0.167624673437016</v>
       </c>
       <c r="C59">
-        <v>0.018116890144429</v>
+        <v>0.02459249272656896</v>
       </c>
       <c r="D59">
-        <v>-0.2230986659666543</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2164412709565641</v>
+      </c>
+      <c r="E59">
+        <v>-0.05074944665678589</v>
+      </c>
+      <c r="F59">
+        <v>-0.04212141664284769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2371660133386751</v>
+        <v>0.2291929946906459</v>
       </c>
       <c r="C60">
-        <v>0.005261349278991966</v>
+        <v>0.001988759783083486</v>
       </c>
       <c r="D60">
-        <v>0.03593615364803224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03824553101302668</v>
+      </c>
+      <c r="E60">
+        <v>-0.0008112379354079051</v>
+      </c>
+      <c r="F60">
+        <v>0.00621541773869658</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08064578584366006</v>
+        <v>0.07416421224602146</v>
       </c>
       <c r="C61">
-        <v>0.01689163535967422</v>
+        <v>0.01138116595637045</v>
       </c>
       <c r="D61">
-        <v>0.1110563481804507</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1172572852454204</v>
+      </c>
+      <c r="E61">
+        <v>0.04064026259776481</v>
+      </c>
+      <c r="F61">
+        <v>0.007465176046668888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1729345420197654</v>
+        <v>0.1688732337821001</v>
       </c>
       <c r="C62">
-        <v>0.02496915231792454</v>
+        <v>0.02386468098576113</v>
       </c>
       <c r="D62">
-        <v>-2.110963128739863e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006470112409068339</v>
+      </c>
+      <c r="E62">
+        <v>0.03327829424404444</v>
+      </c>
+      <c r="F62">
+        <v>0.0415134711193748</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04200001857852805</v>
+        <v>0.04618544713361193</v>
       </c>
       <c r="C63">
-        <v>0.005780228415747204</v>
+        <v>0.00242436597447776</v>
       </c>
       <c r="D63">
-        <v>0.04988369203225029</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06053915754101139</v>
+      </c>
+      <c r="E63">
+        <v>0.02576913591452058</v>
+      </c>
+      <c r="F63">
+        <v>0.0004744361147616442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1140486048016704</v>
+        <v>0.1111073303407237</v>
       </c>
       <c r="C64">
-        <v>0.01704968420198507</v>
+        <v>0.01376214696469003</v>
       </c>
       <c r="D64">
-        <v>0.0340269598754158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04175952226322633</v>
+      </c>
+      <c r="E64">
+        <v>0.02512918616508803</v>
+      </c>
+      <c r="F64">
+        <v>0.02716062900464011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1452797489444053</v>
+        <v>0.1523105439944737</v>
       </c>
       <c r="C65">
-        <v>0.03721864190025963</v>
+        <v>0.03678444350409066</v>
       </c>
       <c r="D65">
-        <v>-0.05729837060763539</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04495134812027796</v>
+      </c>
+      <c r="E65">
+        <v>0.004743765043778662</v>
+      </c>
+      <c r="F65">
+        <v>0.03751688137577173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1328119123584394</v>
+        <v>0.11916382613148</v>
       </c>
       <c r="C66">
-        <v>0.02171904425980432</v>
+        <v>0.0149902017976014</v>
       </c>
       <c r="D66">
-        <v>0.1324429659005443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1415211291420312</v>
+      </c>
+      <c r="E66">
+        <v>0.06764312044212914</v>
+      </c>
+      <c r="F66">
+        <v>0.02772502130359118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06316665131891294</v>
+        <v>0.05594686732004754</v>
       </c>
       <c r="C67">
-        <v>0.006422702183756987</v>
+        <v>0.004032235115059274</v>
       </c>
       <c r="D67">
-        <v>0.05603397912021121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05904397203007675</v>
+      </c>
+      <c r="E67">
+        <v>0.0223841913481637</v>
+      </c>
+      <c r="F67">
+        <v>-0.03459715854695149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1085447338447768</v>
+        <v>0.1182375301367889</v>
       </c>
       <c r="C68">
-        <v>0.02637944475073987</v>
+        <v>0.03491523240836737</v>
       </c>
       <c r="D68">
-        <v>-0.2632516118229206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2599323314972916</v>
+      </c>
+      <c r="E68">
+        <v>-0.08909075571816095</v>
+      </c>
+      <c r="F68">
+        <v>0.0006997974779224371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03922442244962955</v>
+        <v>0.03836423282483533</v>
       </c>
       <c r="C69">
-        <v>0.002524401962521388</v>
+        <v>0.001564165810088673</v>
       </c>
       <c r="D69">
-        <v>0.008055777221648843</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009530784844949829</v>
+      </c>
+      <c r="E69">
+        <v>0.02821995041277284</v>
+      </c>
+      <c r="F69">
+        <v>-0.000654181836959956</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06758039228693277</v>
+        <v>0.06725845809654014</v>
       </c>
       <c r="C70">
-        <v>-0.02398495511111126</v>
+        <v>-0.02626652259752103</v>
       </c>
       <c r="D70">
-        <v>0.02281993337766908</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02811676711624817</v>
+      </c>
+      <c r="E70">
+        <v>-0.02319522640567665</v>
+      </c>
+      <c r="F70">
+        <v>-0.183225077767209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1272250554853646</v>
+        <v>0.1382891909122113</v>
       </c>
       <c r="C71">
-        <v>0.03112806558355414</v>
+        <v>0.03956396817456845</v>
       </c>
       <c r="D71">
-        <v>-0.2780948526756414</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2686547450234529</v>
+      </c>
+      <c r="E71">
+        <v>-0.09804481880145086</v>
+      </c>
+      <c r="F71">
+        <v>0.005841127120531208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1366119085216493</v>
+        <v>0.1436833433476981</v>
       </c>
       <c r="C72">
-        <v>0.02936613539948845</v>
+        <v>0.0296158736905022</v>
       </c>
       <c r="D72">
-        <v>-0.0005924978643887292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003944162556620098</v>
+      </c>
+      <c r="E72">
+        <v>0.0387951987208441</v>
+      </c>
+      <c r="F72">
+        <v>0.02835383600780415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2026378715700338</v>
+        <v>0.203404438363239</v>
       </c>
       <c r="C73">
-        <v>0.01912347418222772</v>
+        <v>0.01525121448250231</v>
       </c>
       <c r="D73">
-        <v>0.00793754754756134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01821173724481701</v>
+      </c>
+      <c r="E73">
+        <v>0.0636125614655971</v>
+      </c>
+      <c r="F73">
+        <v>0.04366106059170885</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09106503628545336</v>
+        <v>0.0920092018229277</v>
       </c>
       <c r="C74">
-        <v>0.015052367290089</v>
+        <v>0.01437028290431929</v>
       </c>
       <c r="D74">
-        <v>0.01356138415066818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01655988350260475</v>
+      </c>
+      <c r="E74">
+        <v>0.04174174532229735</v>
+      </c>
+      <c r="F74">
+        <v>0.05275945534313421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1332058294629513</v>
+        <v>0.1253596731163384</v>
       </c>
       <c r="C75">
-        <v>0.03252297321870059</v>
+        <v>0.03055931237393169</v>
       </c>
       <c r="D75">
-        <v>0.02333921787692984</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02920890408554426</v>
+      </c>
+      <c r="E75">
+        <v>0.05525989888214012</v>
+      </c>
+      <c r="F75">
+        <v>0.02161020648181673</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08144223699800339</v>
+        <v>0.09204091106019169</v>
       </c>
       <c r="C77">
-        <v>0.01447184858869637</v>
+        <v>0.009238295698895383</v>
       </c>
       <c r="D77">
-        <v>0.1134573000241385</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1169563330481514</v>
+      </c>
+      <c r="E77">
+        <v>0.04759086017260306</v>
+      </c>
+      <c r="F77">
+        <v>0.03604882295774452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1018668176746064</v>
+        <v>0.1015764069404216</v>
       </c>
       <c r="C78">
-        <v>0.04493250912290207</v>
+        <v>0.04084860154822717</v>
       </c>
       <c r="D78">
-        <v>0.112075141749072</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1115178271384437</v>
+      </c>
+      <c r="E78">
+        <v>0.07218472466902741</v>
+      </c>
+      <c r="F78">
+        <v>0.05122078216238692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1668097368934797</v>
+        <v>0.1634295272880229</v>
       </c>
       <c r="C79">
-        <v>0.02768980067662872</v>
+        <v>0.02633781779455556</v>
       </c>
       <c r="D79">
-        <v>0.006475129822837137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01252250723785336</v>
+      </c>
+      <c r="E79">
+        <v>0.04410088486677289</v>
+      </c>
+      <c r="F79">
+        <v>0.01301799576676096</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08092730439031591</v>
+        <v>0.0793801045496383</v>
       </c>
       <c r="C80">
-        <v>0.002997927279268864</v>
+        <v>0.0001153153163294865</v>
       </c>
       <c r="D80">
-        <v>0.05294464602857445</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05366204178069095</v>
+      </c>
+      <c r="E80">
+        <v>0.03660684733449867</v>
+      </c>
+      <c r="F80">
+        <v>-0.02758683579345146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1201175615275105</v>
+        <v>0.1152033494936622</v>
       </c>
       <c r="C81">
-        <v>0.0343992771858453</v>
+        <v>0.03380599888158995</v>
       </c>
       <c r="D81">
-        <v>0.007473735540280011</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01188574257132346</v>
+      </c>
+      <c r="E81">
+        <v>0.05206204474096773</v>
+      </c>
+      <c r="F81">
+        <v>0.0184172658261847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1655914802535809</v>
+        <v>0.1642538723965287</v>
       </c>
       <c r="C82">
-        <v>0.02802469076111987</v>
+        <v>0.02836812721866703</v>
       </c>
       <c r="D82">
-        <v>0.005650550275605154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002947210538314794</v>
+      </c>
+      <c r="E82">
+        <v>0.02493328309738997</v>
+      </c>
+      <c r="F82">
+        <v>0.08330177622769253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06011983905015615</v>
+        <v>0.05445030744228906</v>
       </c>
       <c r="C83">
-        <v>0.005292262878448979</v>
+        <v>0.003180695399897275</v>
       </c>
       <c r="D83">
-        <v>0.03882932910427258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04200210629546877</v>
+      </c>
+      <c r="E83">
+        <v>-0.003780570523344583</v>
+      </c>
+      <c r="F83">
+        <v>-0.03535116393277859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05912296327395496</v>
+        <v>0.05490670542786519</v>
       </c>
       <c r="C84">
-        <v>0.01356262975804359</v>
+        <v>0.01076159209234936</v>
       </c>
       <c r="D84">
-        <v>0.07211136934551336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07447602018109153</v>
+      </c>
+      <c r="E84">
+        <v>0.01379723330173257</v>
+      </c>
+      <c r="F84">
+        <v>0.01465926791387201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397817096502702</v>
+        <v>0.1348823613279393</v>
       </c>
       <c r="C85">
-        <v>0.03163407418849203</v>
+        <v>0.03098782453151092</v>
       </c>
       <c r="D85">
-        <v>0.005985662369007006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009332846560702828</v>
+      </c>
+      <c r="E85">
+        <v>0.03475123886443562</v>
+      </c>
+      <c r="F85">
+        <v>0.04911161968046547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09891593345427742</v>
+        <v>0.09198552609560506</v>
       </c>
       <c r="C86">
-        <v>-0.002172673259866953</v>
+        <v>-0.005336297362997536</v>
       </c>
       <c r="D86">
-        <v>0.01574348933268155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04963490101762525</v>
+      </c>
+      <c r="E86">
+        <v>0.2305032708308859</v>
+      </c>
+      <c r="F86">
+        <v>-0.8952772978218109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09430676738185376</v>
+        <v>0.0909032463468747</v>
       </c>
       <c r="C87">
-        <v>0.02846005504773075</v>
+        <v>0.0205437823974058</v>
       </c>
       <c r="D87">
-        <v>0.0701140764589953</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09003084577379149</v>
+      </c>
+      <c r="E87">
+        <v>-0.05809920451688174</v>
+      </c>
+      <c r="F87">
+        <v>0.04875646089946666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06274039867043955</v>
+        <v>0.06103106905166961</v>
       </c>
       <c r="C88">
-        <v>0.006083756075925211</v>
+        <v>0.003098994216566878</v>
       </c>
       <c r="D88">
-        <v>0.04898232079605213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04989096579036487</v>
+      </c>
+      <c r="E88">
+        <v>0.02620483237623941</v>
+      </c>
+      <c r="F88">
+        <v>0.01377982729141905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1191763833548819</v>
+        <v>0.1278713082623589</v>
       </c>
       <c r="C89">
-        <v>0.007122701683462956</v>
+        <v>0.01481315326725609</v>
       </c>
       <c r="D89">
-        <v>-0.2397108212501626</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2406930028031695</v>
+      </c>
+      <c r="E89">
+        <v>-0.09004901160078695</v>
+      </c>
+      <c r="F89">
+        <v>-0.007839320759232573</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1390140905364046</v>
+        <v>0.1532641985528015</v>
       </c>
       <c r="C90">
-        <v>0.02721735327391202</v>
+        <v>0.03619435156944675</v>
       </c>
       <c r="D90">
-        <v>-0.2649866268834215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2663782520699506</v>
+      </c>
+      <c r="E90">
+        <v>-0.1154350011525292</v>
+      </c>
+      <c r="F90">
+        <v>-0.008694710728483563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1221832228372863</v>
+        <v>0.1198301737427944</v>
       </c>
       <c r="C91">
-        <v>0.02231368700251827</v>
+        <v>0.02230334423443412</v>
       </c>
       <c r="D91">
-        <v>-0.02095744267457949</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01725249482580666</v>
+      </c>
+      <c r="E91">
+        <v>0.0538395413579363</v>
+      </c>
+      <c r="F91">
+        <v>-0.001633922583075141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1398961146709373</v>
+        <v>0.1463316027275489</v>
       </c>
       <c r="C92">
-        <v>0.01810820854727393</v>
+        <v>0.02716839112510493</v>
       </c>
       <c r="D92">
-        <v>-0.2946948705605572</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2916213947007682</v>
+      </c>
+      <c r="E92">
+        <v>-0.1021211784344977</v>
+      </c>
+      <c r="F92">
+        <v>-0.01919452721128452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1426373838059455</v>
+        <v>0.1552892809959524</v>
       </c>
       <c r="C93">
-        <v>0.0235677143718609</v>
+        <v>0.03145833193833775</v>
       </c>
       <c r="D93">
-        <v>-0.2631384128216207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2620993404768583</v>
+      </c>
+      <c r="E93">
+        <v>-0.07436770118552508</v>
+      </c>
+      <c r="F93">
+        <v>0.002993345893731289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1332827582444366</v>
+        <v>0.1252453266106067</v>
       </c>
       <c r="C94">
-        <v>0.02902207347143021</v>
+        <v>0.02658839431268156</v>
       </c>
       <c r="D94">
-        <v>0.03808395935075087</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04101133614884118</v>
+      </c>
+      <c r="E94">
+        <v>0.05726911895934433</v>
+      </c>
+      <c r="F94">
+        <v>0.03201439273669269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1267325986557103</v>
+        <v>0.1295386853047004</v>
       </c>
       <c r="C95">
-        <v>0.0109350247876781</v>
+        <v>0.00562398734766677</v>
       </c>
       <c r="D95">
-        <v>0.08720699769609264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09809165250971263</v>
+      </c>
+      <c r="E95">
+        <v>0.05932186588058808</v>
+      </c>
+      <c r="F95">
+        <v>0.0039540492451438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1337374618025349</v>
+        <v>0.1257195415023036</v>
       </c>
       <c r="C96">
-        <v>-0.98529973036274</v>
+        <v>-0.985331358442233</v>
       </c>
       <c r="D96">
-        <v>-0.02077166436786987</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0507612537332921</v>
+      </c>
+      <c r="E96">
+        <v>0.04988076902370869</v>
+      </c>
+      <c r="F96">
+        <v>0.04311429632348106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1934410641865257</v>
+        <v>0.1967714673013182</v>
       </c>
       <c r="C97">
-        <v>-0.001605662347096739</v>
+        <v>-0.001882806815786613</v>
       </c>
       <c r="D97">
-        <v>-0.02872431084394273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02934883330008625</v>
+      </c>
+      <c r="E97">
+        <v>0.0368819221058435</v>
+      </c>
+      <c r="F97">
+        <v>-0.1190611326288928</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1999916414519733</v>
+        <v>0.2060612214618744</v>
       </c>
       <c r="C98">
-        <v>0.0139946191915468</v>
+        <v>0.01002586359883108</v>
       </c>
       <c r="D98">
-        <v>0.01196444910763216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01369781353455704</v>
+      </c>
+      <c r="E98">
+        <v>-0.08062451250181145</v>
+      </c>
+      <c r="F98">
+        <v>-0.09524200823236952</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05665349283427711</v>
+        <v>0.0559906339356897</v>
       </c>
       <c r="C99">
-        <v>-0.001338540433642562</v>
+        <v>-0.003426135400494338</v>
       </c>
       <c r="D99">
-        <v>0.03437687806511049</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04098005349400544</v>
+      </c>
+      <c r="E99">
+        <v>0.0259159569012521</v>
+      </c>
+      <c r="F99">
+        <v>0.002877523497271599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1479491693067857</v>
+        <v>0.13377681649546</v>
       </c>
       <c r="C100">
-        <v>-0.03654212355119027</v>
+        <v>-0.0484763929860678</v>
       </c>
       <c r="D100">
-        <v>0.3995217377550607</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3616469475943127</v>
+      </c>
+      <c r="E100">
+        <v>-0.8795044099584443</v>
+      </c>
+      <c r="F100">
+        <v>-0.1585251635128025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02620292648430337</v>
+        <v>0.02891500541878788</v>
       </c>
       <c r="C101">
-        <v>0.01006344221131009</v>
+        <v>0.009301021058002405</v>
       </c>
       <c r="D101">
-        <v>0.02921743517856252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02995780448137045</v>
+      </c>
+      <c r="E101">
+        <v>0.01846646540332799</v>
+      </c>
+      <c r="F101">
+        <v>-0.0143371452252563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
